--- a/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb125/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0053D1-AEA9-8D46-A16B-E32DC4354FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF251DF-E298-AE4F-91F9-B9360374F68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21920" yWindow="1340" windowWidth="15880" windowHeight="25620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Value</t>
   </si>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -509,8 +509,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>11080707</v>
